--- a/sparql-anything-spreadsheet/src/test/resources/testResources/Book2.xlsx
+++ b/sparql-anything-spreadsheet/src/test/resources/testResources/Book2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed4565/Development/sparql-anything/sparql.anything/sparql-anything-spreadsheet/src/test/resources/testResources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgu/workspace/SPARQLAnything/sparql.anything/sparql-anything-spreadsheet/src/test/resources/testResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD08CDD-90BA-EE43-A998-062AEF652760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F292A664-06DE-9E46-A35D-8F701DBFE30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{B865511E-8ED1-264B-9FAA-0BDECD5CD17B}"/>
+    <workbookView xWindow="38400" yWindow="3000" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{B865511E-8ED1-264B-9FAA-0BDECD5CD17B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,28 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={DBA0F437-B328-E44F-95FF-6F5CB56AF508}</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{DBA0F437-B328-E44F-95FF-6F5CB56AF508}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is a comment
+Reply:
+    This is a reply
+Reply:
+    This is a second reply</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
@@ -86,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +123,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,6 +171,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Luigi Asprino" id="{5B7B39E5-0CB8-744C-BBCD-C3F9F2C8B2D4}" userId="S::luigi.asprino@unibo.it::195812f3-ef82-4dff-99fb-63d33e4dfe64" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,6 +474,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B3" dT="2022-09-23T10:43:21.87" personId="{5B7B39E5-0CB8-744C-BBCD-C3F9F2C8B2D4}" id="{DBA0F437-B328-E44F-95FF-6F5CB56AF508}">
+    <text>This is a comment</text>
+  </threadedComment>
+  <threadedComment ref="B3" dT="2022-09-23T10:48:48.45" personId="{5B7B39E5-0CB8-744C-BBCD-C3F9F2C8B2D4}" id="{1CA15273-CD43-2344-9030-4BDC39FB99EA}" parentId="{DBA0F437-B328-E44F-95FF-6F5CB56AF508}">
+    <text>This is a reply</text>
+  </threadedComment>
+  <threadedComment ref="B3" dT="2022-09-23T10:49:28.73" personId="{5B7B39E5-0CB8-744C-BBCD-C3F9F2C8B2D4}" id="{5E1B3236-F3CF-6A4B-9DD4-D04D6EAECCE8}" parentId="{DBA0F437-B328-E44F-95FF-6F5CB56AF508}">
+    <text>This is a second reply</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E04343-70A9-B944-9682-6F834C7A8CED}">
   <dimension ref="A1:C3"/>
@@ -489,11 +537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E781A12F-4E30-5344-B9ED-A017A5C25AE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E781A12F-4E30-5344-B9ED-A017A5C25AE8}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,5 +585,6 @@
     <hyperlink ref="A1" r:id="rId2" xr:uid="{E06B0EAF-8909-9847-B375-3EDAF71F514E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>